--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-740870.2306721865</v>
+        <v>-741536.9177745617</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058534</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.68385330852141</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>34.57756011096924</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="I11" t="n">
-        <v>36.21910086722846</v>
+        <v>36.2191008672284</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.91776996152049</v>
+        <v>22.91776996152044</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.09022035898409</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.82706754482425</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
     </row>
     <row r="12">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.040069060206896</v>
       </c>
       <c r="R12" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.11457760632494</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.62223208240244</v>
+        <v>10.62223208240239</v>
       </c>
       <c r="U12" t="n">
-        <v>32.90513957632326</v>
+        <v>32.90513957632321</v>
       </c>
       <c r="V12" t="n">
-        <v>36.32641845505574</v>
+        <v>36.32641845505569</v>
       </c>
       <c r="W12" t="n">
-        <v>62.38208111666509</v>
+        <v>62.38208111666503</v>
       </c>
       <c r="X12" t="n">
-        <v>12.9904119791241</v>
+        <v>12.99041197912405</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.06178367367912</v>
+        <v>28.31505226771437</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.02061210103617</v>
+        <v>31.02061210103611</v>
       </c>
       <c r="T13" t="n">
-        <v>19.41578159860718</v>
+        <v>19.41578159860712</v>
       </c>
       <c r="U13" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="V13" t="n">
-        <v>40.7865127241034</v>
+        <v>40.78651272410335</v>
       </c>
       <c r="W13" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="X13" t="n">
-        <v>17.59695294789603</v>
+        <v>17.59695294789597</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.81877035382192</v>
+        <v>12.81877035382186</v>
       </c>
     </row>
     <row r="14">
@@ -1619,61 +1619,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>80.40462765579331</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>52.66778046995309</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36.21910086722848</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>22.91776996152052</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.82706754482433</v>
+      </c>
+      <c r="V14" t="n">
         <v>83.81099470625608</v>
       </c>
-      <c r="I14" t="n">
-        <v>36.21910086722846</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>22.9177699615205</v>
-      </c>
-      <c r="T14" t="n">
-        <v>18.09022035898414</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.62223208240244</v>
+        <v>19.87550067643725</v>
       </c>
       <c r="U15" t="n">
-        <v>78.48482662541392</v>
+        <v>32.90513957632329</v>
       </c>
       <c r="V15" t="n">
-        <v>83.81099470625608</v>
+        <v>36.32641845505577</v>
       </c>
       <c r="W15" t="n">
-        <v>62.38208111666509</v>
+        <v>62.38208111666512</v>
       </c>
       <c r="X15" t="n">
-        <v>12.9904119791241</v>
+        <v>12.99041197912413</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.06178367367912</v>
+        <v>19.06178367367914</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103617</v>
+        <v>31.0206121010362</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860718</v>
+        <v>19.41578159860721</v>
       </c>
       <c r="U16" t="n">
         <v>83.81099470625608</v>
       </c>
       <c r="V16" t="n">
-        <v>40.7865127241034</v>
+        <v>40.78651272410343</v>
       </c>
       <c r="W16" t="n">
         <v>83.81099470625608</v>
       </c>
       <c r="X16" t="n">
-        <v>17.59695294789603</v>
+        <v>17.59695294789606</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81877035382192</v>
+        <v>12.81877035382195</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>67.48153376134462</v>
       </c>
       <c r="G17" t="n">
-        <v>83.10831349049251</v>
+        <v>83.10831349049285</v>
       </c>
       <c r="H17" t="n">
         <v>11.1793171530847</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>83.81099470625608</v>
       </c>
       <c r="S18" t="n">
+        <v>83.81099470625608</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>15.91934606477252</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>83.81099470625608</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2144,7 +2144,7 @@
         <v>2.178747947098032</v>
       </c>
       <c r="X20" t="n">
-        <v>24.06499841603727</v>
+        <v>24.06499841603693</v>
       </c>
       <c r="Y20" t="n">
         <v>46.56785153978103</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>83.81099470625608</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>21.95941512497942</v>
+        <v>15.91934606477254</v>
       </c>
       <c r="J21" t="n">
         <v>51.86130901229092</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.040069060206896</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>83.81099470625608</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="U21" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>67.48153376134462</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10831349049283</v>
+        <v>83.10831349049285</v>
       </c>
       <c r="H23" t="n">
         <v>11.1793171530847</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>67.78065507706341</v>
+      </c>
+      <c r="W24" t="n">
         <v>83.81099470625608</v>
-      </c>
-      <c r="T24" t="n">
-        <v>15.91934606477252</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>83.81099470625608</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
         <v>134.0546263578406</v>
       </c>
       <c r="I26" t="n">
-        <v>27.699196653662</v>
+        <v>27.69919665366203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39786574795403</v>
+        <v>14.39786574795406</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417712</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30716333125784</v>
+        <v>37.30716333125787</v>
       </c>
       <c r="V26" t="n">
         <v>108.0373769352391</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0540571518539</v>
+        <v>125.054057151854</v>
       </c>
       <c r="X26" t="n">
         <v>146.9403076207932</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4431607445369</v>
+        <v>169.443160744537</v>
       </c>
     </row>
     <row r="27">
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>58.73507784333218</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T27" t="n">
-        <v>52.12036085302638</v>
+        <v>2.102327868836008</v>
       </c>
       <c r="U27" t="n">
         <v>237.2276420366697</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80651424148931</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86217690309863</v>
+        <v>53.86217690309866</v>
       </c>
       <c r="X27" t="n">
-        <v>4.470507765557642</v>
+        <v>4.47050776555767</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54187946011265</v>
+        <v>10.54187946011268</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50070788746971</v>
+        <v>22.50070788746974</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89587738504071</v>
+        <v>10.89587738504074</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81385317476283</v>
+        <v>75.81385317476285</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26660851053694</v>
+        <v>32.26660851053697</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46830041542236</v>
+        <v>77.46830041542239</v>
       </c>
       <c r="X28" t="n">
-        <v>9.077048734329566</v>
+        <v>9.077048734329594</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.298866140255456</v>
+        <v>4.298866140255484</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2448337039204</v>
+        <v>161.2448337039203</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3630907072659</v>
+        <v>137.3630907072658</v>
       </c>
       <c r="D29" t="n">
         <v>124.9297529683143</v>
@@ -2810,7 +2810,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I29" t="n">
-        <v>27.699196653662</v>
+        <v>27.69919665366196</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39786574795403</v>
+        <v>14.397865747954</v>
       </c>
       <c r="T29" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417655</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30716333125784</v>
+        <v>37.30716333125781</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0373769352391</v>
+        <v>108.037376935239</v>
       </c>
       <c r="W29" t="n">
         <v>125.0540571518539</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9403076207932</v>
+        <v>146.9403076207931</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4431607445369</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9447345427489</v>
+        <v>2.102327868835951</v>
       </c>
       <c r="U30" t="n">
-        <v>24.3852353627568</v>
+        <v>115.7669791377107</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80651424148928</v>
+        <v>27.80651424148925</v>
       </c>
       <c r="W30" t="n">
-        <v>144.0683651941457</v>
+        <v>53.8621769030986</v>
       </c>
       <c r="X30" t="n">
-        <v>4.470507765557642</v>
+        <v>4.470507765557613</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54187946011265</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50070788746971</v>
+        <v>22.50070788746968</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89587738504071</v>
+        <v>10.89587738504069</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81385317476283</v>
+        <v>75.8138531747628</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26660851053694</v>
+        <v>32.26660851053691</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46830041542236</v>
+        <v>77.46830041542233</v>
       </c>
       <c r="X31" t="n">
-        <v>9.077048734329566</v>
+        <v>9.077048734329537</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.298866140255456</v>
+        <v>4.298866140255427</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2448337039203</v>
+        <v>161.2448337039204</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3630907072658</v>
+        <v>137.3630907072659</v>
       </c>
       <c r="D32" t="n">
         <v>124.9297529683143</v>
@@ -3047,7 +3047,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69919665366197</v>
+        <v>27.699196653662</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.397865747954</v>
+        <v>14.39786574795403</v>
       </c>
       <c r="T32" t="n">
-        <v>9.57031614541765</v>
+        <v>9.570316145417678</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30716333125781</v>
+        <v>37.30716333125784</v>
       </c>
       <c r="V32" t="n">
-        <v>108.037376935239</v>
+        <v>108.0373769352391</v>
       </c>
       <c r="W32" t="n">
         <v>125.0540571518539</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9403076207931</v>
+        <v>146.9403076207932</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4431607445369</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3117,7 +3117,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>127.124780094551</v>
+        <v>116.3571229678507</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.102327868835951</v>
+        <v>2.10232786883598</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38523536275677</v>
+        <v>24.3852353627568</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80651424148925</v>
+        <v>27.80651424148928</v>
       </c>
       <c r="W33" t="n">
-        <v>53.8621769030986</v>
+        <v>53.86217690309863</v>
       </c>
       <c r="X33" t="n">
-        <v>4.470507765557613</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54187946011263</v>
+        <v>10.54187946011265</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50070788746968</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89587738504069</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U34" t="n">
-        <v>75.8138531747628</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26660851053691</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46830041542233</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X34" t="n">
-        <v>9.077048734329537</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.298866140255427</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0690239837153</v>
+        <v>138.0690239837152</v>
       </c>
       <c r="C35" t="n">
-        <v>114.1872809870608</v>
+        <v>114.1872809870607</v>
       </c>
       <c r="D35" t="n">
-        <v>101.7539432481093</v>
+        <v>101.7539432481092</v>
       </c>
       <c r="E35" t="n">
-        <v>135.4606956675181</v>
+        <v>135.460695667518</v>
       </c>
       <c r="F35" t="n">
-        <v>167.1810332458955</v>
+        <v>167.1810332458953</v>
       </c>
       <c r="G35" t="n">
-        <v>182.8078129750437</v>
+        <v>182.8078129750436</v>
       </c>
       <c r="H35" t="n">
-        <v>110.8788166376355</v>
+        <v>110.8788166376354</v>
       </c>
       <c r="I35" t="n">
-        <v>4.523386933456948</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.13135361105279</v>
+        <v>14.13135361105267</v>
       </c>
       <c r="V35" t="n">
-        <v>84.861567215034</v>
+        <v>84.86156721503389</v>
       </c>
       <c r="W35" t="n">
-        <v>101.8782474316489</v>
+        <v>101.8782474316488</v>
       </c>
       <c r="X35" t="n">
-        <v>123.7644979005881</v>
+        <v>123.764497900588</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.2673510243319</v>
+        <v>146.2673510243318</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3354,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.9925332504207</v>
       </c>
       <c r="I36" t="n">
-        <v>27.18345308193888</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.209425642551748</v>
+        <v>1.209425642551635</v>
       </c>
       <c r="V36" t="n">
-        <v>4.63070452128423</v>
+        <v>4.630704521284116</v>
       </c>
       <c r="W36" t="n">
-        <v>30.68636718289358</v>
+        <v>30.68636718289346</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.63804345455777</v>
+        <v>52.63804345455765</v>
       </c>
       <c r="V37" t="n">
-        <v>9.090798790331888</v>
+        <v>9.090798790331775</v>
       </c>
       <c r="W37" t="n">
-        <v>54.29249069521731</v>
+        <v>54.2924906952172</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0690239837153</v>
+        <v>138.0690239837152</v>
       </c>
       <c r="C38" t="n">
-        <v>114.1872809870608</v>
+        <v>114.1872809870607</v>
       </c>
       <c r="D38" t="n">
-        <v>101.7539432481093</v>
+        <v>101.7539432481092</v>
       </c>
       <c r="E38" t="n">
-        <v>135.4606956675181</v>
+        <v>135.460695667518</v>
       </c>
       <c r="F38" t="n">
-        <v>167.1810332458955</v>
+        <v>167.1810332458953</v>
       </c>
       <c r="G38" t="n">
-        <v>182.8078129750437</v>
+        <v>182.8078129750436</v>
       </c>
       <c r="H38" t="n">
-        <v>110.8788166376355</v>
+        <v>110.8788166376354</v>
       </c>
       <c r="I38" t="n">
-        <v>4.523386933456948</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.13135361105279</v>
+        <v>14.13135361105267</v>
       </c>
       <c r="V38" t="n">
-        <v>84.861567215034</v>
+        <v>84.86156721503389</v>
       </c>
       <c r="W38" t="n">
-        <v>101.8782474316489</v>
+        <v>101.8782474316488</v>
       </c>
       <c r="X38" t="n">
-        <v>123.7644979005881</v>
+        <v>123.764497900588</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.2673510243319</v>
+        <v>146.2673510243318</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>49.68711354245583</v>
+        <v>76.71606977857797</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.209425642551748</v>
+        <v>1.209425642551635</v>
       </c>
       <c r="V39" t="n">
-        <v>4.63070452128423</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>30.68636718289358</v>
+        <v>30.68636718289346</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.63804345455777</v>
+        <v>52.63804345455765</v>
       </c>
       <c r="V40" t="n">
-        <v>9.090798790331888</v>
+        <v>9.090798790331775</v>
       </c>
       <c r="W40" t="n">
-        <v>54.29249069521731</v>
+        <v>54.2924906952172</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E41" t="n">
-        <v>135.4606956675181</v>
+        <v>135.460695667518</v>
       </c>
       <c r="F41" t="n">
-        <v>167.1810332458954</v>
+        <v>167.1810332458953</v>
       </c>
       <c r="G41" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H41" t="n">
-        <v>110.8788166376355</v>
+        <v>110.8788166376354</v>
       </c>
       <c r="I41" t="n">
-        <v>4.523386933456862</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.1313536110527</v>
+        <v>14.13135361105267</v>
       </c>
       <c r="V41" t="n">
-        <v>84.86156721503392</v>
+        <v>84.86156721503389</v>
       </c>
       <c r="W41" t="n">
         <v>101.8782474316488</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>98.02954163234779</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U42" t="n">
-        <v>1.209425642551663</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V42" t="n">
-        <v>4.630704521284144</v>
+        <v>4.630704521284116</v>
       </c>
       <c r="W42" t="n">
-        <v>30.68636718289349</v>
+        <v>152.5026148304426</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.63804345455768</v>
+        <v>52.63804345455765</v>
       </c>
       <c r="V43" t="n">
-        <v>9.090798790331803</v>
+        <v>9.090798790331775</v>
       </c>
       <c r="W43" t="n">
-        <v>54.29249069521723</v>
+        <v>54.2924906952172</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E44" t="n">
-        <v>135.4606956675181</v>
+        <v>135.460695667518</v>
       </c>
       <c r="F44" t="n">
-        <v>167.1810332458954</v>
+        <v>167.1810332458953</v>
       </c>
       <c r="G44" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H44" t="n">
-        <v>110.8788166376355</v>
+        <v>110.8788166376354</v>
       </c>
       <c r="I44" t="n">
-        <v>4.523386933456862</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.1313536110527</v>
+        <v>14.13135361105267</v>
       </c>
       <c r="V44" t="n">
-        <v>84.86156721503392</v>
+        <v>84.86156721503389</v>
       </c>
       <c r="W44" t="n">
         <v>101.8782474316488</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6727734256474</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>68.45161771227487</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.209425642551663</v>
+        <v>1.209425642551635</v>
       </c>
       <c r="V45" t="n">
-        <v>4.630704521284144</v>
+        <v>49.43259321738643</v>
       </c>
       <c r="W45" t="n">
-        <v>30.68636718289349</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.63804345455768</v>
+        <v>52.63804345455765</v>
       </c>
       <c r="V46" t="n">
-        <v>9.090798790331803</v>
+        <v>9.090798790331775</v>
       </c>
       <c r="W46" t="n">
-        <v>54.29249069521723</v>
+        <v>54.2924906952172</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.604970768157</v>
+        <v>162.8742287527163</v>
       </c>
       <c r="C11" t="n">
-        <v>212.604970768157</v>
+        <v>127.947400357798</v>
       </c>
       <c r="D11" t="n">
-        <v>212.604970768157</v>
+        <v>127.947400357798</v>
       </c>
       <c r="E11" t="n">
-        <v>127.9474003577976</v>
+        <v>127.947400357798</v>
       </c>
       <c r="F11" t="n">
-        <v>43.28982994743829</v>
+        <v>127.947400357798</v>
       </c>
       <c r="G11" t="n">
-        <v>43.28982994743829</v>
+        <v>127.947400357798</v>
       </c>
       <c r="H11" t="n">
-        <v>43.28982994743829</v>
+        <v>43.28982994743826</v>
       </c>
       <c r="I11" t="n">
-        <v>6.704879576500462</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J11" t="n">
-        <v>79.83206084168044</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="K11" t="n">
-        <v>79.83206084168044</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="L11" t="n">
-        <v>128.4500899503221</v>
+        <v>55.32290868514212</v>
       </c>
       <c r="M11" t="n">
-        <v>211.4229747095153</v>
+        <v>138.2957934443356</v>
       </c>
       <c r="N11" t="n">
-        <v>288.8960114725984</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O11" t="n">
-        <v>325.1422444634997</v>
+        <v>252.01506319832</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1422444634997</v>
+        <v>252.01506319832</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.1422444634997</v>
+        <v>325.1422444635008</v>
       </c>
       <c r="R11" t="n">
-        <v>335.2439788250231</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="S11" t="n">
-        <v>312.0947162376286</v>
+        <v>312.0947162376299</v>
       </c>
       <c r="T11" t="n">
-        <v>312.0947162376286</v>
+        <v>293.8217663800702</v>
       </c>
       <c r="U11" t="n">
-        <v>312.0947162376286</v>
+        <v>247.531799163076</v>
       </c>
       <c r="V11" t="n">
-        <v>312.0947162376286</v>
+        <v>247.531799163076</v>
       </c>
       <c r="W11" t="n">
-        <v>312.0947162376286</v>
+        <v>247.531799163076</v>
       </c>
       <c r="X11" t="n">
-        <v>227.4371458272693</v>
+        <v>247.531799163076</v>
       </c>
       <c r="Y11" t="n">
-        <v>227.4371458272693</v>
+        <v>162.8742287527163</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="C12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="D12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="E12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="F12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="G12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="H12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="I12" t="n">
-        <v>6.704879576500462</v>
+        <v>59.09004019497617</v>
       </c>
       <c r="J12" t="n">
-        <v>6.704879576500462</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="K12" t="n">
-        <v>45.70690058228106</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="L12" t="n">
-        <v>128.6797853414743</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="M12" t="n">
-        <v>128.6797853414743</v>
+        <v>86.3253245474438</v>
       </c>
       <c r="N12" t="n">
-        <v>169.2982093066366</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="O12" t="n">
-        <v>252.2710940658299</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2439788250231</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.1428989662282</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="R12" t="n">
-        <v>244.4853285558689</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="S12" t="n">
-        <v>182.7534319838235</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="T12" t="n">
-        <v>172.0239046278614</v>
+        <v>318.4133716102675</v>
       </c>
       <c r="U12" t="n">
-        <v>138.7863899043026</v>
+        <v>285.1758568867087</v>
       </c>
       <c r="V12" t="n">
-        <v>102.0930379294988</v>
+        <v>248.482504911905</v>
       </c>
       <c r="W12" t="n">
-        <v>39.0808347813522</v>
+        <v>185.4703017637585</v>
       </c>
       <c r="X12" t="n">
-        <v>25.95920651961068</v>
+        <v>172.348673502017</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.704879576500462</v>
+        <v>143.7476106053359</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.14340555392508</v>
+        <v>33.14340555392516</v>
       </c>
       <c r="C13" t="n">
-        <v>70.63007382741549</v>
+        <v>70.63007382741563</v>
       </c>
       <c r="D13" t="n">
-        <v>70.63007382741549</v>
+        <v>70.63007382741563</v>
       </c>
       <c r="E13" t="n">
-        <v>70.63007382741549</v>
+        <v>70.63007382741563</v>
       </c>
       <c r="F13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="G13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="I13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="J13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="K13" t="n">
-        <v>135.3717378668964</v>
+        <v>135.3717378668965</v>
       </c>
       <c r="L13" t="n">
-        <v>215.9144383910206</v>
+        <v>218.34462262609</v>
       </c>
       <c r="M13" t="n">
-        <v>298.8873231502138</v>
+        <v>218.34462262609</v>
       </c>
       <c r="N13" t="n">
-        <v>298.8873231502138</v>
+        <v>218.34462262609</v>
       </c>
       <c r="O13" t="n">
-        <v>298.8873231502138</v>
+        <v>298.8873231502142</v>
       </c>
       <c r="P13" t="n">
-        <v>298.8873231502138</v>
+        <v>298.8873231502142</v>
       </c>
       <c r="Q13" t="n">
-        <v>298.8873231502138</v>
+        <v>298.8873231502142</v>
       </c>
       <c r="R13" t="n">
-        <v>298.8873231502138</v>
+        <v>298.8873231502142</v>
       </c>
       <c r="S13" t="n">
-        <v>267.5533715330056</v>
+        <v>267.553371533006</v>
       </c>
       <c r="T13" t="n">
-        <v>247.9414709283519</v>
+        <v>247.9414709283523</v>
       </c>
       <c r="U13" t="n">
-        <v>163.2839005179925</v>
+        <v>163.2839005179927</v>
       </c>
       <c r="V13" t="n">
-        <v>122.085402816878</v>
+        <v>122.0854028168782</v>
       </c>
       <c r="W13" t="n">
-        <v>37.42783240651859</v>
+        <v>37.4278324065185</v>
       </c>
       <c r="X13" t="n">
-        <v>19.65313245914886</v>
+        <v>19.65313245914883</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.704879576500462</v>
+        <v>6.704879576500486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="C14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="D14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="E14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="F14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="G14" t="n">
-        <v>127.947400357798</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="H14" t="n">
-        <v>43.28982994743834</v>
+        <v>43.28982994743836</v>
       </c>
       <c r="I14" t="n">
         <v>6.704879576500486</v>
       </c>
       <c r="J14" t="n">
-        <v>89.67776433569401</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="K14" t="n">
-        <v>89.93379520320484</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="L14" t="n">
-        <v>138.5518243118465</v>
+        <v>55.32290868514212</v>
       </c>
       <c r="M14" t="n">
-        <v>221.52470907104</v>
+        <v>138.2957934443356</v>
       </c>
       <c r="N14" t="n">
-        <v>298.9977458341231</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O14" t="n">
-        <v>335.2439788250243</v>
+        <v>252.01506319832</v>
       </c>
       <c r="P14" t="n">
-        <v>335.2439788250243</v>
+        <v>252.01506319832</v>
       </c>
       <c r="Q14" t="n">
-        <v>335.2439788250243</v>
+        <v>325.142244463501</v>
       </c>
       <c r="R14" t="n">
         <v>335.2439788250243</v>
@@ -5306,22 +5306,22 @@
         <v>312.0947162376299</v>
       </c>
       <c r="T14" t="n">
-        <v>293.8217663800701</v>
+        <v>312.0947162376299</v>
       </c>
       <c r="U14" t="n">
-        <v>293.8217663800701</v>
+        <v>265.8047490206356</v>
       </c>
       <c r="V14" t="n">
-        <v>293.8217663800701</v>
+        <v>181.1471786102759</v>
       </c>
       <c r="W14" t="n">
-        <v>293.8217663800701</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="X14" t="n">
-        <v>293.8217663800701</v>
+        <v>96.48960819991623</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.1641959697104</v>
+        <v>96.48960819991623</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="C15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="D15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="E15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="F15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="G15" t="n">
         <v>59.09004019497617</v>
@@ -5358,19 +5358,19 @@
         <v>6.704879576500486</v>
       </c>
       <c r="K15" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="L15" t="n">
-        <v>89.67776433569401</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M15" t="n">
-        <v>89.67776433569401</v>
+        <v>211.6526701006681</v>
       </c>
       <c r="N15" t="n">
-        <v>172.6506490948875</v>
+        <v>294.6255548598616</v>
       </c>
       <c r="O15" t="n">
-        <v>255.623533854081</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="P15" t="n">
         <v>335.2439788250243</v>
@@ -5385,22 +5385,22 @@
         <v>329.1428989662295</v>
       </c>
       <c r="T15" t="n">
-        <v>318.4133716102674</v>
+        <v>309.0666356566969</v>
       </c>
       <c r="U15" t="n">
+        <v>275.829120933138</v>
+      </c>
+      <c r="V15" t="n">
         <v>239.1357689583342</v>
       </c>
-      <c r="V15" t="n">
-        <v>154.4781985479745</v>
-      </c>
       <c r="W15" t="n">
-        <v>91.4659953998279</v>
+        <v>176.1235658101876</v>
       </c>
       <c r="X15" t="n">
-        <v>78.34436713808638</v>
+        <v>163.0019375484461</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.09004019497617</v>
+        <v>143.7476106053359</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.14340555392511</v>
+        <v>33.14340555392508</v>
       </c>
       <c r="C16" t="n">
-        <v>70.63007382741552</v>
+        <v>70.63007382741546</v>
       </c>
       <c r="D16" t="n">
-        <v>70.63007382741552</v>
+        <v>129.1785275149549</v>
       </c>
       <c r="E16" t="n">
-        <v>70.63007382741552</v>
+        <v>191.1984251505951</v>
       </c>
       <c r="F16" t="n">
-        <v>135.3717378668964</v>
+        <v>255.9400891900759</v>
       </c>
       <c r="G16" t="n">
-        <v>170.6426408507587</v>
+        <v>291.2109921739382</v>
       </c>
       <c r="H16" t="n">
-        <v>208.8037108450023</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="I16" t="n">
-        <v>208.8037108450023</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="J16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="K16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="L16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="M16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="N16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="O16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="P16" t="n">
-        <v>220.9752020906256</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="Q16" t="n">
-        <v>297.761230687665</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="R16" t="n">
-        <v>298.8873231502145</v>
+        <v>298.8873231502147</v>
       </c>
       <c r="S16" t="n">
-        <v>267.5533715330063</v>
+        <v>267.5533715330064</v>
       </c>
       <c r="T16" t="n">
-        <v>247.9414709283525</v>
+        <v>247.9414709283526</v>
       </c>
       <c r="U16" t="n">
         <v>163.2839005179929</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168783</v>
+        <v>122.0854028168784</v>
       </c>
       <c r="W16" t="n">
-        <v>37.42783240651862</v>
+        <v>37.42783240651868</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914889</v>
+        <v>19.65313245914892</v>
       </c>
       <c r="Y16" t="n">
         <v>6.704879576500486</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.9398147825182</v>
+        <v>222.9398147825186</v>
       </c>
       <c r="C17" t="n">
-        <v>208.3056920527101</v>
+        <v>208.3056920527104</v>
       </c>
       <c r="D17" t="n">
-        <v>206.2304963319442</v>
+        <v>206.2304963319441</v>
       </c>
       <c r="E17" t="n">
-        <v>170.1080759451087</v>
+        <v>170.1080759451085</v>
       </c>
       <c r="F17" t="n">
         <v>101.9449105296088</v>
@@ -5546,19 +5546,19 @@
         <v>252.01506319832</v>
       </c>
       <c r="U17" t="n">
-        <v>320.5544258782027</v>
+        <v>334.9879479575135</v>
       </c>
       <c r="V17" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="W17" t="n">
-        <v>333.043223322905</v>
+        <v>333.0432233229051</v>
       </c>
       <c r="X17" t="n">
-        <v>308.7351441147865</v>
+        <v>308.7351441147868</v>
       </c>
       <c r="Y17" t="n">
-        <v>261.6969102362197</v>
+        <v>261.69691023622</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.7476106053359</v>
+        <v>59.09004019497617</v>
       </c>
       <c r="C18" t="n">
-        <v>143.7476106053359</v>
+        <v>59.09004019497617</v>
       </c>
       <c r="D18" t="n">
-        <v>143.7476106053359</v>
+        <v>59.09004019497617</v>
       </c>
       <c r="E18" t="n">
-        <v>143.7476106053359</v>
+        <v>59.09004019497617</v>
       </c>
       <c r="F18" t="n">
         <v>59.09004019497617</v>
@@ -5598,16 +5598,16 @@
         <v>6.704879576500486</v>
       </c>
       <c r="L18" t="n">
-        <v>89.67776433569401</v>
+        <v>86.3253245474438</v>
       </c>
       <c r="M18" t="n">
-        <v>172.6506490948875</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="N18" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="O18" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658308</v>
       </c>
       <c r="P18" t="n">
         <v>335.2439788250243</v>
@@ -5619,13 +5619,13 @@
         <v>244.4853285558698</v>
       </c>
       <c r="S18" t="n">
-        <v>228.4051810156955</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="T18" t="n">
-        <v>228.4051810156955</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="U18" t="n">
-        <v>228.4051810156955</v>
+        <v>143.7476106053359</v>
       </c>
       <c r="V18" t="n">
         <v>143.7476106053359</v>
@@ -5637,7 +5637,7 @@
         <v>143.7476106053359</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.7476106053359</v>
+        <v>59.09004019497617</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.9398147825185</v>
+        <v>222.9398147825189</v>
       </c>
       <c r="C20" t="n">
-        <v>208.3056920527106</v>
+        <v>208.3056920527108</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319444</v>
+        <v>206.2304963319447</v>
       </c>
       <c r="E20" t="n">
-        <v>170.1080759451088</v>
+        <v>170.108075945109</v>
       </c>
       <c r="F20" t="n">
-        <v>101.944910529609</v>
+        <v>101.9449105296094</v>
       </c>
       <c r="G20" t="n">
         <v>17.99711912507089</v>
@@ -5750,37 +5750,37 @@
         <v>6.704879576500486</v>
       </c>
       <c r="J20" t="n">
-        <v>6.704879576500486</v>
+        <v>75.24424225638316</v>
       </c>
       <c r="K20" t="n">
-        <v>6.704879576500486</v>
+        <v>75.24424225638316</v>
       </c>
       <c r="L20" t="n">
-        <v>55.32290868514212</v>
+        <v>123.8622713650248</v>
       </c>
       <c r="M20" t="n">
-        <v>138.2957934443356</v>
+        <v>206.8351561242183</v>
       </c>
       <c r="N20" t="n">
-        <v>215.7688302074188</v>
+        <v>284.3081928873015</v>
       </c>
       <c r="O20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="P20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="R20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="S20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="T20" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="U20" t="n">
         <v>320.5544258782027</v>
@@ -5792,10 +5792,10 @@
         <v>333.0432233229051</v>
       </c>
       <c r="X20" t="n">
-        <v>308.7351441147867</v>
+        <v>308.7351441147871</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.69691023622</v>
+        <v>261.6969102362204</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="C21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="D21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="E21" t="n">
-        <v>81.27126759394528</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="F21" t="n">
-        <v>81.27126759394528</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="G21" t="n">
-        <v>81.27126759394528</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="H21" t="n">
-        <v>81.27126759394528</v>
+        <v>75.17018773515045</v>
       </c>
       <c r="I21" t="n">
         <v>59.09004019497617</v>
@@ -5841,40 +5841,40 @@
         <v>211.6526701006681</v>
       </c>
       <c r="N21" t="n">
+        <v>211.6526701006681</v>
+      </c>
+      <c r="O21" t="n">
         <v>252.2710940658308</v>
-      </c>
-      <c r="O21" t="n">
-        <v>335.2439788250243</v>
       </c>
       <c r="P21" t="n">
         <v>335.2439788250243</v>
       </c>
       <c r="Q21" t="n">
-        <v>335.2439788250243</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="R21" t="n">
-        <v>250.5864084146646</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="S21" t="n">
-        <v>250.5864084146646</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="T21" t="n">
-        <v>250.5864084146646</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="U21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="V21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="W21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="X21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.928838004305</v>
+        <v>159.8277581455101</v>
       </c>
     </row>
     <row r="22">
@@ -5984,34 +5984,34 @@
         <v>6.704879576500486</v>
       </c>
       <c r="I23" t="n">
-        <v>6.960910444011375</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J23" t="n">
-        <v>6.960910444011375</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="K23" t="n">
-        <v>6.960910444011375</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="L23" t="n">
-        <v>55.57893955265301</v>
+        <v>55.32290868514212</v>
       </c>
       <c r="M23" t="n">
-        <v>138.5518243118465</v>
+        <v>138.2957934443356</v>
       </c>
       <c r="N23" t="n">
-        <v>216.0248610749296</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2710940658308</v>
+        <v>252.01506319832</v>
       </c>
       <c r="P23" t="n">
-        <v>252.2710940658308</v>
+        <v>252.01506319832</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.2710940658308</v>
+        <v>252.01506319832</v>
       </c>
       <c r="R23" t="n">
-        <v>252.2710940658308</v>
+        <v>252.01506319832</v>
       </c>
       <c r="S23" t="n">
         <v>252.2710940658308</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>143.7476106053359</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="C24" t="n">
-        <v>143.7476106053359</v>
+        <v>91.36244998686017</v>
       </c>
       <c r="D24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="E24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="F24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="G24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="H24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="I24" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500486</v>
       </c>
       <c r="J24" t="n">
         <v>6.704879576500486</v>
@@ -6078,10 +6078,10 @@
         <v>211.6526701006681</v>
       </c>
       <c r="N24" t="n">
-        <v>252.2710940658308</v>
+        <v>294.6255548598616</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2710940658308</v>
+        <v>335.2439788250243</v>
       </c>
       <c r="P24" t="n">
         <v>335.2439788250243</v>
@@ -6093,25 +6093,25 @@
         <v>329.1428989662295</v>
       </c>
       <c r="S24" t="n">
-        <v>244.4853285558698</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="T24" t="n">
-        <v>228.4051810156955</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="U24" t="n">
-        <v>228.4051810156955</v>
+        <v>329.1428989662295</v>
       </c>
       <c r="V24" t="n">
-        <v>143.7476106053359</v>
+        <v>260.6775908075796</v>
       </c>
       <c r="W24" t="n">
-        <v>143.7476106053359</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="X24" t="n">
-        <v>143.7476106053359</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="Y24" t="n">
-        <v>143.7476106053359</v>
+        <v>176.0200203972199</v>
       </c>
     </row>
     <row r="25">
@@ -6203,7 +6203,7 @@
         <v>1025.008801653035</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2582049790287</v>
+        <v>886.258204979029</v>
       </c>
       <c r="D26" t="n">
         <v>760.0665353140652</v>
@@ -6218,16 +6218,16 @@
         <v>199.483736274598</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07502278182984</v>
+        <v>64.07502278182989</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J26" t="n">
         <v>171.816581689731</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3999075957675</v>
+        <v>377.3999075957674</v>
       </c>
       <c r="L26" t="n">
         <v>636.7319193115829</v>
@@ -6242,19 +6242,19 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.265373616013</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.801813148967</v>
+        <v>1804.801813148968</v>
       </c>
       <c r="S26" t="n">
         <v>1790.25851441366</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.591528408187</v>
+        <v>1780.591528408188</v>
       </c>
       <c r="U26" t="n">
         <v>1742.907525043281</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.8761525019476</v>
+        <v>268.9876015994762</v>
       </c>
       <c r="C27" t="n">
-        <v>196.8761525019476</v>
+        <v>268.9876015994762</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09603626297934</v>
+        <v>268.9876015994762</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09603626297934</v>
+        <v>95.42439772089065</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09603626297934</v>
+        <v>95.42439772089065</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09805726875993</v>
+        <v>75.09805726875996</v>
       </c>
       <c r="L27" t="n">
         <v>193.8276299939782</v>
@@ -6330,25 +6330,25 @@
         <v>801.7968473846419</v>
       </c>
       <c r="S27" t="n">
-        <v>801.7968473846419</v>
+        <v>608.3927008679248</v>
       </c>
       <c r="T27" t="n">
-        <v>749.1500182401708</v>
+        <v>606.26913736405</v>
       </c>
       <c r="U27" t="n">
-        <v>509.5261373950498</v>
+        <v>366.645256518929</v>
       </c>
       <c r="V27" t="n">
-        <v>266.4464192986838</v>
+        <v>338.5578683962126</v>
       </c>
       <c r="W27" t="n">
-        <v>212.0401800026247</v>
+        <v>284.1516291001533</v>
       </c>
       <c r="X27" t="n">
-        <v>207.5245155929705</v>
+        <v>279.6359646904991</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.8761525019476</v>
+        <v>268.9876015994762</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09603626297934</v>
+        <v>79.80164441827247</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09603626297934</v>
+        <v>81.51774449009221</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09603626297934</v>
+        <v>81.51774449009221</v>
       </c>
       <c r="J28" t="n">
-        <v>117.2915825341741</v>
+        <v>81.51774449009221</v>
       </c>
       <c r="K28" t="n">
-        <v>117.2915825341741</v>
+        <v>81.51774449009221</v>
       </c>
       <c r="L28" t="n">
-        <v>117.2915825341741</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="M28" t="n">
-        <v>117.2915825341741</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="N28" t="n">
-        <v>117.2915825341741</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="O28" t="n">
-        <v>117.2915825341741</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7639779274415</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7639779274415</v>
+        <v>261.2031802934615</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7639779274415</v>
+        <v>270.7639779274418</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0359901623206</v>
+        <v>248.0359901623208</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0300534097543</v>
+        <v>237.0300534097544</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4504037382766</v>
+        <v>160.4504037382768</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W28" t="n">
-        <v>49.6070613888228</v>
+        <v>49.60706138882287</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43832529354041</v>
+        <v>40.43832529354045</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09603626297934</v>
+        <v>36.09603626297935</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2582049790292</v>
+        <v>886.2582049790299</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0665353140652</v>
+        <v>760.066535314066</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8276409830316</v>
+        <v>599.8276409830324</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5480016233341</v>
+        <v>407.548001623335</v>
       </c>
       <c r="G29" t="n">
-        <v>199.483736274598</v>
+        <v>199.4837362745989</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07502278182987</v>
+        <v>64.07502278182983</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J29" t="n">
         <v>171.8165816897311</v>
@@ -6467,28 +6467,28 @@
         <v>377.3999075957676</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7319193115831</v>
+        <v>636.7319193115833</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4187866779504</v>
+        <v>930.4187866779506</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.605806048208</v>
+        <v>1218.605806048207</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.566021646283</v>
+        <v>1465.566021646282</v>
       </c>
       <c r="P29" t="n">
         <v>1663.067752909548</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.265373616014</v>
+        <v>1786.265373616013</v>
       </c>
       <c r="R29" t="n">
         <v>1804.801813148968</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.258514413661</v>
+        <v>1790.25851441366</v>
       </c>
       <c r="T29" t="n">
         <v>1780.591528408188</v>
@@ -6497,13 +6497,13 @@
         <v>1742.907525043281</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.778861472332</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.461632026015</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.882371050935</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09603626297936</v>
+        <v>370.0869564243208</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09603626297936</v>
+        <v>370.0869564243208</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09603626297936</v>
+        <v>370.0869564243208</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09603626297936</v>
+        <v>196.5237525457352</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="K30" t="n">
         <v>75.09805726875996</v>
@@ -6561,31 +6561,31 @@
         <v>801.7968473846419</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.695767525847</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="R30" t="n">
-        <v>660.0226439582934</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="S30" t="n">
-        <v>466.6184974415763</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="T30" t="n">
-        <v>249.5026039640521</v>
+        <v>799.6732838807671</v>
       </c>
       <c r="U30" t="n">
-        <v>224.8710530925806</v>
+        <v>682.736941317423</v>
       </c>
       <c r="V30" t="n">
-        <v>196.7836649698642</v>
+        <v>654.6495531947065</v>
       </c>
       <c r="W30" t="n">
-        <v>51.26006376365643</v>
+        <v>600.2433138986473</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74439935400224</v>
+        <v>595.7276494889932</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09603626297936</v>
+        <v>370.0869564243208</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="F31" t="n">
-        <v>69.6198643360234</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="G31" t="n">
-        <v>69.6198643360234</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="H31" t="n">
-        <v>69.6198643360234</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="I31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="K31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="L31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="M31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="N31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="O31" t="n">
-        <v>117.2915825341741</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7639779274415</v>
+        <v>175.9824465249908</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7639779274415</v>
+        <v>261.2031802934611</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7639779274415</v>
+        <v>270.7639779274414</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0359901623206</v>
+        <v>248.0359901623205</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0300534097543</v>
+        <v>237.0300534097541</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4504037382767</v>
+        <v>160.4504037382765</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8578698892495</v>
+        <v>127.8578698892494</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882282</v>
+        <v>49.60706138882276</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354043</v>
+        <v>40.43832529354039</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.008801653036</v>
+        <v>1025.008801653035</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2582049790299</v>
+        <v>886.2582049790293</v>
       </c>
       <c r="D32" t="n">
-        <v>760.066535314066</v>
+        <v>760.0665353140653</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830324</v>
+        <v>599.8276409830318</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233349</v>
+        <v>407.5480016233342</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4837362745989</v>
+        <v>199.4837362745982</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07502278182983</v>
+        <v>64.07502278182986</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8165816897311</v>
+        <v>171.816581689731</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3999075957676</v>
+        <v>377.3999075957675</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7319193115832</v>
+        <v>636.7319193115829</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4187866779505</v>
+        <v>930.4187866779503</v>
       </c>
       <c r="N32" t="n">
         <v>1218.605806048207</v>
@@ -6719,19 +6719,19 @@
         <v>1663.067752909548</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.265373616014</v>
+        <v>1786.265373616013</v>
       </c>
       <c r="R32" t="n">
         <v>1804.801813148968</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.258514413661</v>
+        <v>1790.25851441366</v>
       </c>
       <c r="T32" t="n">
         <v>1780.591528408188</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.907525043282</v>
+        <v>1742.907525043281</v>
       </c>
       <c r="V32" t="n">
         <v>1633.778861472333</v>
@@ -6740,7 +6740,7 @@
         <v>1507.461632026016</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.0370788737</v>
+        <v>1359.037078873699</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.882371050935</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>498.8482251629079</v>
+        <v>677.3840780898429</v>
       </c>
       <c r="C33" t="n">
-        <v>498.8482251629079</v>
+        <v>487.9718038228066</v>
       </c>
       <c r="D33" t="n">
-        <v>338.0681089239397</v>
+        <v>327.1916875838383</v>
       </c>
       <c r="E33" t="n">
-        <v>164.5049050453541</v>
+        <v>153.6284837052528</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
       <c r="K33" t="n">
         <v>75.09805726875996</v>
@@ -6822,7 +6822,7 @@
         <v>688.0324411808658</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.384078089843</v>
+        <v>677.3840780898429</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09603626297936</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09603626297936</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="D34" t="n">
-        <v>103.0791951219496</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="E34" t="n">
-        <v>173.5337979290207</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="F34" t="n">
-        <v>173.5337979290207</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="G34" t="n">
-        <v>217.2394060843139</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="H34" t="n">
-        <v>261.2031802934611</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="I34" t="n">
-        <v>261.2031802934611</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="J34" t="n">
-        <v>261.2031802934611</v>
+        <v>163.0273042401468</v>
       </c>
       <c r="K34" t="n">
-        <v>261.2031802934611</v>
+        <v>163.0273042401468</v>
       </c>
       <c r="L34" t="n">
-        <v>261.2031802934611</v>
+        <v>163.0273042401468</v>
       </c>
       <c r="M34" t="n">
-        <v>261.2031802934611</v>
+        <v>163.0273042401468</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2031802934611</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="O34" t="n">
-        <v>261.2031802934611</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="P34" t="n">
-        <v>261.2031802934611</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.2031802934611</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7639779274414</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0359901623205</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0300534097541</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4504037382765</v>
+        <v>160.4504037382767</v>
       </c>
       <c r="V34" t="n">
         <v>127.8578698892494</v>
       </c>
       <c r="W34" t="n">
-        <v>49.60706138882276</v>
+        <v>49.60706138882281</v>
       </c>
       <c r="X34" t="n">
-        <v>40.4383252935404</v>
+        <v>40.43832529354042</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09603626297936</v>
+        <v>36.09603626297935</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.4345604185198</v>
+        <v>854.4345604185182</v>
       </c>
       <c r="C35" t="n">
-        <v>739.0938725528017</v>
+        <v>739.0938725528003</v>
       </c>
       <c r="D35" t="n">
-        <v>636.3121116961256</v>
+        <v>636.3121116961245</v>
       </c>
       <c r="E35" t="n">
-        <v>499.48312617338</v>
+        <v>499.4831261733789</v>
       </c>
       <c r="F35" t="n">
-        <v>330.6133956219704</v>
+        <v>330.6133956219695</v>
       </c>
       <c r="G35" t="n">
-        <v>145.9590390815218</v>
+        <v>145.9590390815214</v>
       </c>
       <c r="H35" t="n">
-        <v>33.96023439704147</v>
+        <v>33.96023439704132</v>
       </c>
       <c r="I35" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J35" t="n">
-        <v>188.0557537362336</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K35" t="n">
-        <v>188.0557537362336</v>
+        <v>416.5831312652733</v>
       </c>
       <c r="L35" t="n">
-        <v>470.3318170750521</v>
+        <v>698.859194604092</v>
       </c>
       <c r="M35" t="n">
-        <v>786.9627360644224</v>
+        <v>947.7706181982643</v>
       </c>
       <c r="N35" t="n">
-        <v>864.4357728275055</v>
+        <v>1025.243654961347</v>
       </c>
       <c r="O35" t="n">
-        <v>1039.330284780683</v>
+        <v>1061.489887952249</v>
       </c>
       <c r="P35" t="n">
-        <v>1259.776067666951</v>
+        <v>1281.935670838517</v>
       </c>
       <c r="Q35" t="n">
-        <v>1405.91773999642</v>
+        <v>1428.077343167986</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.398231152377</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="S35" t="n">
-        <v>1456.088395684905</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="T35" t="n">
-        <v>1469.557834323945</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="U35" t="n">
-        <v>1455.283739767326</v>
+        <v>1455.283739767324</v>
       </c>
       <c r="V35" t="n">
-        <v>1369.564985004665</v>
+        <v>1369.564985004663</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.657664366636</v>
+        <v>1266.657664366634</v>
       </c>
       <c r="X35" t="n">
-        <v>1141.643020022608</v>
+        <v>1141.643020022606</v>
       </c>
       <c r="Y35" t="n">
-        <v>993.8982210081314</v>
+        <v>993.8982210081297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>541.0806224652338</v>
+        <v>313.0478284947823</v>
       </c>
       <c r="C36" t="n">
-        <v>541.0806224652338</v>
+        <v>313.0478284947823</v>
       </c>
       <c r="D36" t="n">
-        <v>541.0806224652338</v>
+        <v>313.0478284947823</v>
       </c>
       <c r="E36" t="n">
-        <v>367.5174185866482</v>
+        <v>139.4846246161968</v>
       </c>
       <c r="F36" t="n">
-        <v>207.0897023038923</v>
+        <v>139.4846246161968</v>
       </c>
       <c r="G36" t="n">
-        <v>56.84919010257877</v>
+        <v>139.4846246161968</v>
       </c>
       <c r="H36" t="n">
-        <v>56.84919010257877</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I36" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K36" t="n">
-        <v>68.3931776922595</v>
+        <v>68.39317769225946</v>
       </c>
       <c r="L36" t="n">
         <v>187.1227504174777</v>
@@ -7044,22 +7044,22 @@
         <v>795.0919678081414</v>
       </c>
       <c r="T36" t="n">
-        <v>577.9760743306172</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="U36" t="n">
-        <v>576.7544322674336</v>
+        <v>793.8703257449579</v>
       </c>
       <c r="V36" t="n">
-        <v>572.076952953005</v>
+        <v>789.1928464305295</v>
       </c>
       <c r="W36" t="n">
-        <v>541.0806224652338</v>
+        <v>758.1965159427583</v>
       </c>
       <c r="X36" t="n">
-        <v>541.0806224652338</v>
+        <v>538.6885215594547</v>
       </c>
       <c r="Y36" t="n">
-        <v>541.0806224652338</v>
+        <v>313.0478284947823</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="C37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="D37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="F37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="G37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J37" t="n">
-        <v>29.3911566864789</v>
+        <v>144.393245137794</v>
       </c>
       <c r="K37" t="n">
-        <v>29.3911566864789</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="L37" t="n">
-        <v>29.3911566864789</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="M37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="N37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="O37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T37" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U37" t="n">
-        <v>93.41468141935688</v>
+        <v>93.41468141935661</v>
       </c>
       <c r="V37" t="n">
-        <v>84.2320563786176</v>
+        <v>84.23205637861744</v>
       </c>
       <c r="W37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="X37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.3911566864789</v>
+        <v>29.39115668647886</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>854.4345604185179</v>
+        <v>854.4345604185185</v>
       </c>
       <c r="C38" t="n">
-        <v>739.0938725527999</v>
+        <v>739.0938725528006</v>
       </c>
       <c r="D38" t="n">
-        <v>636.3121116961239</v>
+        <v>636.3121116961247</v>
       </c>
       <c r="E38" t="n">
-        <v>499.4831261733784</v>
+        <v>499.4831261733789</v>
       </c>
       <c r="F38" t="n">
-        <v>330.6133956219692</v>
+        <v>330.6133956219695</v>
       </c>
       <c r="G38" t="n">
-        <v>145.9590390815218</v>
+        <v>145.9590390815214</v>
       </c>
       <c r="H38" t="n">
-        <v>33.96023439704145</v>
+        <v>33.96023439704132</v>
       </c>
       <c r="I38" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J38" t="n">
-        <v>188.0557537362336</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K38" t="n">
-        <v>188.0557537362336</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="L38" t="n">
-        <v>470.3318170750521</v>
+        <v>236.6737828448753</v>
       </c>
       <c r="M38" t="n">
-        <v>786.9627360644224</v>
+        <v>553.3047018342457</v>
       </c>
       <c r="N38" t="n">
-        <v>864.4357728275055</v>
+        <v>769.4260175596022</v>
       </c>
       <c r="O38" t="n">
-        <v>1061.489887952249</v>
+        <v>1039.33028478068</v>
       </c>
       <c r="P38" t="n">
-        <v>1281.935670838518</v>
+        <v>1259.776067666949</v>
       </c>
       <c r="Q38" t="n">
-        <v>1428.077343167986</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="R38" t="n">
-        <v>1469.557834323944</v>
+        <v>1447.398231152375</v>
       </c>
       <c r="S38" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684903</v>
       </c>
       <c r="T38" t="n">
-        <v>1469.557834323944</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="U38" t="n">
-        <v>1455.283739767325</v>
+        <v>1455.283739767324</v>
       </c>
       <c r="V38" t="n">
         <v>1369.564985004664</v>
@@ -7217,7 +7217,7 @@
         <v>1141.643020022606</v>
       </c>
       <c r="Y38" t="n">
-        <v>993.8982210081293</v>
+        <v>993.8982210081298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>579.6606630158228</v>
+        <v>106.8821362608001</v>
       </c>
       <c r="C39" t="n">
-        <v>390.2483887487865</v>
+        <v>106.8821362608001</v>
       </c>
       <c r="D39" t="n">
-        <v>340.0593851705483</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E39" t="n">
-        <v>340.0593851705483</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="F39" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="G39" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H39" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I39" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J39" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K39" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225946</v>
       </c>
       <c r="L39" t="n">
         <v>187.1227504174777</v>
@@ -7278,25 +7278,25 @@
         <v>795.0919678081414</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0919678081414</v>
+        <v>601.6878212914243</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0919678081414</v>
+        <v>601.6878212914243</v>
       </c>
       <c r="U39" t="n">
-        <v>793.8703257449578</v>
+        <v>600.4661792282408</v>
       </c>
       <c r="V39" t="n">
-        <v>789.1928464305292</v>
+        <v>357.3864611318749</v>
       </c>
       <c r="W39" t="n">
-        <v>758.196515942758</v>
+        <v>326.3901306441037</v>
       </c>
       <c r="X39" t="n">
-        <v>758.196515942758</v>
+        <v>106.8821362608001</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.196515942758</v>
+        <v>106.8821362608001</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="C40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="D40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="F40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="G40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K40" t="n">
-        <v>29.39115668647887</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="L40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="M40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="N40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="O40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T40" t="n">
-        <v>146.5844222825465</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U40" t="n">
-        <v>93.41468141935685</v>
+        <v>93.41468141935661</v>
       </c>
       <c r="V40" t="n">
-        <v>84.23205637861757</v>
+        <v>84.23205637861744</v>
       </c>
       <c r="W40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="X40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>854.4345604185187</v>
+        <v>854.4345604185182</v>
       </c>
       <c r="C41" t="n">
-        <v>739.0938725528006</v>
+        <v>739.0938725528003</v>
       </c>
       <c r="D41" t="n">
-        <v>636.3121116961246</v>
+        <v>636.3121116961245</v>
       </c>
       <c r="E41" t="n">
-        <v>499.4831261733791</v>
+        <v>499.483126173379</v>
       </c>
       <c r="F41" t="n">
-        <v>330.6133956219696</v>
+        <v>330.6133956219695</v>
       </c>
       <c r="G41" t="n">
         <v>145.9590390815215</v>
       </c>
       <c r="H41" t="n">
-        <v>33.96023439704136</v>
+        <v>33.96023439704132</v>
       </c>
       <c r="I41" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J41" t="n">
-        <v>188.0557537362336</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K41" t="n">
-        <v>313.4917813545994</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="L41" t="n">
-        <v>362.109810463241</v>
+        <v>141.6640275769716</v>
       </c>
       <c r="M41" t="n">
-        <v>678.7407294526115</v>
+        <v>458.2949465663421</v>
       </c>
       <c r="N41" t="n">
-        <v>989.8718004458715</v>
+        <v>769.4260175596022</v>
       </c>
       <c r="O41" t="n">
-        <v>1259.77606766695</v>
+        <v>1039.33028478068</v>
       </c>
       <c r="P41" t="n">
-        <v>1259.77606766695</v>
+        <v>1259.776067666949</v>
       </c>
       <c r="Q41" t="n">
         <v>1405.917739996418</v>
       </c>
       <c r="R41" t="n">
-        <v>1447.398231152376</v>
+        <v>1447.398231152375</v>
       </c>
       <c r="S41" t="n">
-        <v>1456.088395684904</v>
+        <v>1456.088395684903</v>
       </c>
       <c r="T41" t="n">
-        <v>1469.557834323944</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="U41" t="n">
-        <v>1455.283739767325</v>
+        <v>1455.283739767324</v>
       </c>
       <c r="V41" t="n">
-        <v>1369.564985004664</v>
+        <v>1369.564985004663</v>
       </c>
       <c r="W41" t="n">
-        <v>1266.657664366635</v>
+        <v>1266.657664366634</v>
       </c>
       <c r="X41" t="n">
-        <v>1141.643020022607</v>
+        <v>1141.643020022606</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.89822100813</v>
+        <v>993.8982210081297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128.4108957090524</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="C42" t="n">
-        <v>128.4108957090524</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="D42" t="n">
-        <v>128.4108957090524</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="E42" t="n">
-        <v>128.4108957090524</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="F42" t="n">
-        <v>128.4108957090524</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="G42" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H42" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I42" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J42" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225946</v>
       </c>
       <c r="L42" t="n">
         <v>187.1227504174777</v>
@@ -7509,31 +7509,31 @@
         <v>795.0919678081414</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="R42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="S42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="T42" t="n">
-        <v>788.9908879493465</v>
+        <v>577.9760743306172</v>
       </c>
       <c r="U42" t="n">
-        <v>787.769245886163</v>
+        <v>338.3521934854962</v>
       </c>
       <c r="V42" t="n">
-        <v>783.0917665717346</v>
+        <v>333.6747141710678</v>
       </c>
       <c r="W42" t="n">
-        <v>752.0954360839635</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="X42" t="n">
-        <v>532.5874417006598</v>
+        <v>179.6316688877924</v>
       </c>
       <c r="Y42" t="n">
-        <v>306.9467486359875</v>
+        <v>179.6316688877924</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.8966136024876</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="C43" t="n">
-        <v>105.8966136024876</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="D43" t="n">
-        <v>105.8966136024876</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E43" t="n">
-        <v>146.5844222825463</v>
+        <v>75.96865246139238</v>
       </c>
       <c r="F43" t="n">
-        <v>146.5844222825463</v>
+        <v>75.96865246139238</v>
       </c>
       <c r="G43" t="n">
-        <v>146.5844222825463</v>
+        <v>75.96865246139238</v>
       </c>
       <c r="H43" t="n">
-        <v>146.5844222825463</v>
+        <v>75.96865246139238</v>
       </c>
       <c r="I43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="J43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="K43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="L43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="M43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="N43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T43" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U43" t="n">
-        <v>93.41468141935668</v>
+        <v>93.41468141935661</v>
       </c>
       <c r="V43" t="n">
-        <v>84.23205637861749</v>
+        <v>84.23205637861744</v>
       </c>
       <c r="W43" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="X43" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.07933083062906</v>
+        <v>29.39115668647886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.434560418519</v>
+        <v>854.4345604185187</v>
       </c>
       <c r="C44" t="n">
-        <v>739.093872552801</v>
+        <v>739.0938725528008</v>
       </c>
       <c r="D44" t="n">
         <v>636.3121116961249</v>
@@ -7640,43 +7640,43 @@
         <v>145.9590390815215</v>
       </c>
       <c r="H44" t="n">
-        <v>33.96023439704136</v>
+        <v>33.96023439704132</v>
       </c>
       <c r="I44" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J44" t="n">
-        <v>188.0557537362336</v>
+        <v>93.04599846833001</v>
       </c>
       <c r="K44" t="n">
-        <v>416.5831312652732</v>
+        <v>93.04599846833001</v>
       </c>
       <c r="L44" t="n">
-        <v>698.8591946040917</v>
+        <v>141.6640275769716</v>
       </c>
       <c r="M44" t="n">
-        <v>1015.490113593462</v>
+        <v>458.2949465663421</v>
       </c>
       <c r="N44" t="n">
-        <v>1092.963150356545</v>
+        <v>769.4260175596022</v>
       </c>
       <c r="O44" t="n">
-        <v>1129.209383347447</v>
+        <v>1039.33028478068</v>
       </c>
       <c r="P44" t="n">
-        <v>1349.655166233715</v>
+        <v>1259.776067666949</v>
       </c>
       <c r="Q44" t="n">
-        <v>1469.557834323944</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="R44" t="n">
-        <v>1469.557834323944</v>
+        <v>1447.398231152375</v>
       </c>
       <c r="S44" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684903</v>
       </c>
       <c r="T44" t="n">
-        <v>1469.557834323944</v>
+        <v>1469.557834323943</v>
       </c>
       <c r="U44" t="n">
         <v>1455.283739767325</v>
@@ -7691,7 +7691,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y44" t="n">
-        <v>993.8982210081303</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>317.113468304889</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="C45" t="n">
-        <v>317.113468304889</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="D45" t="n">
-        <v>156.3333520659207</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E45" t="n">
-        <v>156.3333520659207</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="F45" t="n">
-        <v>156.3333520659207</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="G45" t="n">
-        <v>156.3333520659207</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H45" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I45" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J45" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K45" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225946</v>
       </c>
       <c r="L45" t="n">
         <v>187.1227504174777</v>
@@ -7752,25 +7752,25 @@
         <v>795.0919678081414</v>
       </c>
       <c r="S45" t="n">
-        <v>601.6878212914243</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="T45" t="n">
-        <v>532.5447730972072</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="U45" t="n">
-        <v>531.3231310340237</v>
+        <v>793.8703257449579</v>
       </c>
       <c r="V45" t="n">
-        <v>526.6456517195953</v>
+        <v>743.9384134041635</v>
       </c>
       <c r="W45" t="n">
-        <v>495.6493212318241</v>
+        <v>474.5398441344548</v>
       </c>
       <c r="X45" t="n">
-        <v>495.6493212318241</v>
+        <v>255.0318497511512</v>
       </c>
       <c r="Y45" t="n">
-        <v>495.6493212318241</v>
+        <v>29.39115668647886</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="C46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="D46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="E46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="F46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="G46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="H46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="I46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="J46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="K46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="L46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="M46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="N46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="O46" t="n">
-        <v>62.03710420664588</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P46" t="n">
-        <v>62.03710420664588</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.7589384563254</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R46" t="n">
-        <v>133.7589384563254</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S46" t="n">
-        <v>134.4272892707335</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T46" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U46" t="n">
-        <v>93.41468141935668</v>
+        <v>93.41468141935661</v>
       </c>
       <c r="V46" t="n">
-        <v>84.23205637861749</v>
+        <v>84.23205637861744</v>
       </c>
       <c r="W46" t="n">
-        <v>29.39115668647887</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="X46" t="n">
-        <v>43.34893006249569</v>
+        <v>29.39115668647886</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.03710420664588</v>
+        <v>29.39115668647886</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>291.2847697033552</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>204.186677124293</v>
+        <v>120.3756824180373</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6188252740119</v>
+        <v>157.6475363499338</v>
       </c>
       <c r="N12" t="n">
-        <v>142.9779817688203</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O12" t="n">
-        <v>204.4566298243529</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P12" t="n">
-        <v>204.4643398792407</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>204.1866771242933</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6188252740119</v>
+        <v>200.429819980268</v>
       </c>
       <c r="N15" t="n">
         <v>185.7602653991548</v>
       </c>
       <c r="O15" t="n">
-        <v>204.4566298243532</v>
+        <v>161.6743461940191</v>
       </c>
       <c r="P15" t="n">
-        <v>201.0780370628266</v>
+        <v>120.6533451729849</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,7 +9246,7 @@
         <v>131.9774927702312</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1866771242933</v>
+        <v>200.800374307879</v>
       </c>
       <c r="M18" t="n">
         <v>200.429819980268</v>
@@ -9258,7 +9258,7 @@
         <v>120.6456351180971</v>
       </c>
       <c r="P18" t="n">
-        <v>201.0780370628266</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9489,13 +9489,13 @@
         <v>200.429819980268</v>
       </c>
       <c r="N21" t="n">
-        <v>142.9779817688207</v>
+        <v>101.9492706928988</v>
       </c>
       <c r="O21" t="n">
-        <v>204.4566298243532</v>
+        <v>161.6743461940191</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9644,7 +9644,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>291.2847697033555</v>
+        <v>291.2847697033554</v>
       </c>
       <c r="N23" t="n">
         <v>283.4008070189657</v>
@@ -9726,13 +9726,13 @@
         <v>200.429819980268</v>
       </c>
       <c r="N24" t="n">
-        <v>142.9779817688207</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6456351180971</v>
+        <v>161.6743461940191</v>
       </c>
       <c r="P24" t="n">
-        <v>204.464339879241</v>
+        <v>120.6533451729849</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.0808846089654</v>
+        <v>169.7647379174868</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8829949208323</v>
+        <v>111.305434809863</v>
       </c>
       <c r="D11" t="n">
-        <v>133.4496571818808</v>
+        <v>133.4496571818807</v>
       </c>
       <c r="E11" t="n">
-        <v>83.34541489503388</v>
+        <v>167.1564096012896</v>
       </c>
       <c r="F11" t="n">
-        <v>115.0657524734112</v>
+        <v>198.8767471796669</v>
       </c>
       <c r="G11" t="n">
         <v>214.5035269088152</v>
       </c>
       <c r="H11" t="n">
-        <v>142.5745305714071</v>
+        <v>58.76353586515091</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.09022035898415</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.8270675448243</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>116.5572811488055</v>
       </c>
       <c r="W11" t="n">
-        <v>133.5739613654204</v>
+        <v>133.5739613654203</v>
       </c>
       <c r="X11" t="n">
-        <v>71.64921712810386</v>
+        <v>155.4602118343596</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.9630649581034</v>
+        <v>94.15207025184725</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5227626820735137</v>
+        <v>0.5227626820731442</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.177209922733056</v>
+        <v>2.177209922732686</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.7647379174868</v>
+        <v>169.7647379174869</v>
       </c>
       <c r="C14" t="n">
         <v>145.8829949208323</v>
@@ -23507,10 +23507,10 @@
         <v>198.876747179667</v>
       </c>
       <c r="G14" t="n">
-        <v>134.0988992530219</v>
+        <v>214.5035269088152</v>
       </c>
       <c r="H14" t="n">
-        <v>58.76353586515097</v>
+        <v>89.90675010145399</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.09022035898418</v>
       </c>
       <c r="U14" t="n">
-        <v>45.8270675448243</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.5572811488055</v>
+        <v>32.74628644254946</v>
       </c>
       <c r="W14" t="n">
-        <v>133.5739613654204</v>
+        <v>49.76296665916433</v>
       </c>
       <c r="X14" t="n">
-        <v>155.4602118343596</v>
+        <v>155.4602118343597</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.15207025184728</v>
+        <v>177.9630649581034</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5227626820732011</v>
+        <v>0.5227626820732295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.177209922732743</v>
+        <v>2.177209922732771</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3.446132268436486e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>463014.2974676413</v>
       </c>
       <c r="C2" t="n">
-        <v>463014.2974676413</v>
+        <v>463014.2974676412</v>
       </c>
       <c r="D2" t="n">
-        <v>463014.2974676412</v>
+        <v>463014.2974676414</v>
       </c>
       <c r="E2" t="n">
         <v>398994.7967357517</v>
       </c>
       <c r="F2" t="n">
-        <v>398994.7967357516</v>
+        <v>398994.7967357514</v>
       </c>
       <c r="G2" t="n">
         <v>463952.2381507314</v>
       </c>
       <c r="H2" t="n">
-        <v>463952.2381507314</v>
+        <v>463952.2381507315</v>
       </c>
       <c r="I2" t="n">
         <v>463952.2381507314</v>
       </c>
       <c r="J2" t="n">
+        <v>463952.2381507311</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463952.2381507313</v>
+      </c>
+      <c r="L2" t="n">
         <v>463952.238150731</v>
       </c>
-      <c r="K2" t="n">
-        <v>463952.2381507311</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463952.2381507311</v>
-      </c>
       <c r="M2" t="n">
-        <v>463952.2381507318</v>
+        <v>463952.2381507317</v>
       </c>
       <c r="N2" t="n">
-        <v>463952.2381507318</v>
+        <v>463952.2381507317</v>
       </c>
       <c r="O2" t="n">
         <v>463952.2381507318</v>
       </c>
       <c r="P2" t="n">
-        <v>463952.2381507318</v>
+        <v>463952.2381507315</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272190.369236591</v>
+        <v>272190.3692365912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161283.0021054359</v>
+        <v>161283.002105436</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105116.1707346579</v>
       </c>
       <c r="M3" t="n">
-        <v>18540.64777616402</v>
+        <v>18540.64777616413</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65157.75460447255</v>
+        <v>65157.75460447251</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>493696.1728711353</v>
       </c>
       <c r="E4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600601</v>
       </c>
       <c r="F4" t="n">
         <v>388252.7260600601</v>
@@ -26439,25 +26439,25 @@
         <v>458781.7794468557</v>
       </c>
       <c r="J4" t="n">
+        <v>459727.7067886267</v>
+      </c>
+      <c r="K4" t="n">
         <v>459727.7067886268</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>459727.7067886267</v>
-      </c>
-      <c r="L4" t="n">
-        <v>459727.7067886268</v>
       </c>
       <c r="M4" t="n">
         <v>459351.4258455442</v>
       </c>
       <c r="N4" t="n">
-        <v>459351.4258455441</v>
+        <v>459351.4258455442</v>
       </c>
       <c r="O4" t="n">
-        <v>459351.4258455443</v>
+        <v>459351.4258455442</v>
       </c>
       <c r="P4" t="n">
-        <v>459351.4258455443</v>
+        <v>459351.4258455442</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24544.28478191324</v>
+        <v>24544.28478191326</v>
       </c>
       <c r="F5" t="n">
-        <v>24544.28478191326</v>
+        <v>24544.28478191325</v>
       </c>
       <c r="G5" t="n">
         <v>35590.5489787782</v>
@@ -26491,7 +26491,7 @@
         <v>35590.5489787782</v>
       </c>
       <c r="J5" t="n">
-        <v>47597.8236909675</v>
+        <v>47597.82369096751</v>
       </c>
       <c r="K5" t="n">
         <v>47597.82369096752</v>
@@ -26500,16 +26500,16 @@
         <v>47597.82369096752</v>
       </c>
       <c r="M5" t="n">
-        <v>44450.48236019509</v>
+        <v>44450.48236019507</v>
       </c>
       <c r="N5" t="n">
-        <v>44450.48236019506</v>
+        <v>44450.48236019507</v>
       </c>
       <c r="O5" t="n">
-        <v>44450.48236019508</v>
+        <v>44450.48236019507</v>
       </c>
       <c r="P5" t="n">
-        <v>44450.48236019508</v>
+        <v>44450.48236019507</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64309.47540349399</v>
+        <v>-64313.94178769918</v>
       </c>
       <c r="C6" t="n">
-        <v>-64309.47540349399</v>
+        <v>-64313.94178769924</v>
       </c>
       <c r="D6" t="n">
-        <v>-64309.47540349405</v>
+        <v>-64313.94178769912</v>
       </c>
       <c r="E6" t="n">
-        <v>-285992.5833428125</v>
+        <v>-286301.904492408</v>
       </c>
       <c r="F6" t="n">
-        <v>-13802.21410622179</v>
+        <v>-14111.53525581698</v>
       </c>
       <c r="G6" t="n">
-        <v>-135536.2610095603</v>
+        <v>-135536.2610095604</v>
       </c>
       <c r="H6" t="n">
-        <v>-30420.09027490242</v>
+        <v>-30420.09027490231</v>
       </c>
       <c r="I6" t="n">
         <v>-30420.09027490242</v>
       </c>
       <c r="J6" t="n">
-        <v>-204656.2944342992</v>
+        <v>-204656.2944342991</v>
       </c>
       <c r="K6" t="n">
-        <v>-43373.29232886317</v>
+        <v>-43373.29232886306</v>
       </c>
       <c r="L6" t="n">
         <v>-148489.4630635212</v>
       </c>
       <c r="M6" t="n">
-        <v>-58390.31783117146</v>
+        <v>-58390.31783117167</v>
       </c>
       <c r="N6" t="n">
-        <v>-39849.67005500731</v>
+        <v>-39849.67005500761</v>
       </c>
       <c r="O6" t="n">
         <v>-105007.42465948</v>
       </c>
       <c r="P6" t="n">
-        <v>-39849.67005500756</v>
+        <v>-39849.67005500773</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="F2" t="n">
         <v>204.3225024603465</v>
@@ -26707,7 +26707,7 @@
         <v>335.7177158786689</v>
       </c>
       <c r="J2" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="K2" t="n">
         <v>212.842406673913</v>
@@ -26716,10 +26716,10 @@
         <v>212.842406673913</v>
       </c>
       <c r="M2" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="N2" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="O2" t="n">
         <v>236.0182163941181</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="F4" t="n">
         <v>83.81099470625608</v>
@@ -26811,25 +26811,25 @@
         <v>83.81099470625608</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2004532872418</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="K4" t="n">
-        <v>451.200453287242</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="L4" t="n">
-        <v>451.200453287242</v>
+        <v>451.2004532872419</v>
       </c>
       <c r="M4" t="n">
-        <v>367.3894585809862</v>
+        <v>367.3894585809858</v>
       </c>
       <c r="N4" t="n">
-        <v>367.3894585809859</v>
+        <v>367.3894585809858</v>
       </c>
       <c r="O4" t="n">
-        <v>367.3894585809859</v>
+        <v>367.3894585809858</v>
       </c>
       <c r="P4" t="n">
-        <v>367.3894585809859</v>
+        <v>367.3894585809858</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.44719325559061</v>
+        <v>81.44719325559063</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>131.3952134183224</v>
       </c>
       <c r="M2" t="n">
-        <v>23.17580972020502</v>
+        <v>23.17580972020517</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559069</v>
+        <v>81.44719325559063</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>367.3894585809857</v>
+        <v>367.3894585809858</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559061</v>
+        <v>81.44719325559063</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="C11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="D11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="E11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="F11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="G11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="H11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="I11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="J11" t="n">
-        <v>149.616786308689</v>
+        <v>75.75094664689104</v>
       </c>
       <c r="K11" t="n">
         <v>5.182481516300349</v>
@@ -28132,31 +28132,31 @@
         <v>13.34570842819045</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.40036555627083</v>
+        <v>162.2662052180697</v>
       </c>
       <c r="R11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="S11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
     </row>
     <row r="12">
@@ -28187,10 +28187,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1397061627909</v>
+        <v>23.32871145653486</v>
       </c>
       <c r="J12" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.50539762562235</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S12" t="n">
-        <v>130.355527445225</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T12" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U12" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="V12" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X12" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.3225024603465</v>
+        <v>195.0692338663112</v>
       </c>
     </row>
     <row r="13">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="C13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953277291724</v>
@@ -28275,16 +28275,16 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L13" t="n">
-        <v>112.6982296241705</v>
+        <v>115.1529611747455</v>
       </c>
       <c r="M13" t="n">
-        <v>108.1739870617846</v>
+        <v>24.36299235552879</v>
       </c>
       <c r="N13" t="n">
         <v>15.6865875183878</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70894732328664</v>
+        <v>118.0652104789676</v>
       </c>
       <c r="P13" t="n">
         <v>57.81978506455187</v>
@@ -28296,25 +28296,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="T13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="U13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="V13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="W13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="X13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.3225024603465</v>
+        <v>204.3225024603466</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>204.3225024603465</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5619413531471</v>
+        <v>75.75094664689104</v>
       </c>
       <c r="K14" t="n">
-        <v>5.441098554190077</v>
+        <v>5.182481516300349</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28369,10 +28369,10 @@
         <v>13.34570842819045</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.40036555627083</v>
+        <v>162.2662052180698</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1187303779996</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="S14" t="n">
         <v>204.3225024603465</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7381070793004</v>
+        <v>64.92711237304428</v>
       </c>
       <c r="H15" t="n">
         <v>125.6727734256474</v>
@@ -28457,13 +28457,13 @@
         <v>191.47010505155</v>
       </c>
       <c r="T15" t="n">
+        <v>195.0692338663117</v>
+      </c>
+      <c r="U15" t="n">
         <v>204.3225024603465</v>
       </c>
-      <c r="U15" t="n">
-        <v>158.7428154112558</v>
-      </c>
       <c r="V15" t="n">
-        <v>156.8379262091462</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="W15" t="n">
         <v>204.3225024603465</v>
@@ -28488,10 +28488,10 @@
         <v>204.3225024603465</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.3225024603465</v>
       </c>
       <c r="F16" t="n">
         <v>204.3225024603465</v>
@@ -28500,13 +28500,13 @@
         <v>204.3225024603465</v>
       </c>
       <c r="H16" t="n">
-        <v>204.3225024603465</v>
+        <v>173.5298367856323</v>
       </c>
       <c r="I16" t="n">
         <v>164.6891559687103</v>
       </c>
       <c r="J16" t="n">
-        <v>132.1489262873587</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K16" t="n">
         <v>66.3971147738707</v>
@@ -28527,10 +28527,10 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.3225024603465</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R16" t="n">
-        <v>204.3225024603465</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S16" t="n">
         <v>204.3225024603465</v>
@@ -28618,10 +28618,10 @@
         <v>222.4127228193306</v>
       </c>
       <c r="U17" t="n">
-        <v>319.3812494797998</v>
+        <v>333.9605647114269</v>
       </c>
       <c r="V17" t="n">
-        <v>335.7177158786689</v>
+        <v>321.1384006470417</v>
       </c>
       <c r="W17" t="n">
         <v>335.7177158786689</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>75.01244441367226</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7381070793004</v>
@@ -28691,16 +28691,16 @@
         <v>50.50539762562204</v>
       </c>
       <c r="S18" t="n">
-        <v>175.5507589867774</v>
+        <v>107.6591103452939</v>
       </c>
       <c r="T18" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276420366697</v>
+        <v>221.3082959718972</v>
       </c>
       <c r="V18" t="n">
-        <v>156.8379262091462</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>139.5732914277695</v>
       </c>
     </row>
     <row r="19">
@@ -28822,7 +28822,7 @@
         <v>240.541603327575</v>
       </c>
       <c r="J20" t="n">
-        <v>75.75094664689104</v>
+        <v>144.98262612152</v>
       </c>
       <c r="K20" t="n">
         <v>5.182481516300349</v>
@@ -28855,7 +28855,7 @@
         <v>222.4127228193306</v>
       </c>
       <c r="U20" t="n">
-        <v>319.3812494797998</v>
+        <v>250.1495700051708</v>
       </c>
       <c r="V20" t="n">
         <v>335.7177158786689</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>88.01657713354359</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,10 +28895,10 @@
         <v>148.7381070793004</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6727734256474</v>
+        <v>41.86177871939137</v>
       </c>
       <c r="I21" t="n">
-        <v>85.18029103781151</v>
+        <v>91.2203600980184</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.50539762562205</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S21" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452939</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9447345427489</v>
+        <v>131.1337398364929</v>
       </c>
       <c r="U21" t="n">
-        <v>153.4166473304137</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29056,7 +29056,7 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I23" t="n">
-        <v>240.8002203654648</v>
+        <v>240.541603327575</v>
       </c>
       <c r="J23" t="n">
         <v>75.75094664689104</v>
@@ -29086,7 +29086,7 @@
         <v>194.1187303779996</v>
       </c>
       <c r="S23" t="n">
-        <v>227.240272421867</v>
+        <v>227.4988894597568</v>
       </c>
       <c r="T23" t="n">
         <v>222.4127228193306</v>
@@ -29117,10 +29117,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>103.7071568181098</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>75.36132037032246</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29135,10 +29135,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I24" t="n">
-        <v>23.32871145653486</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29165,19 +29165,19 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S24" t="n">
-        <v>107.6591103452939</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0253884779764</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276420366697</v>
       </c>
       <c r="V24" t="n">
-        <v>156.8379262091462</v>
+        <v>172.8682658383388</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>182.8935888707555</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="C26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="D26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="E26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="F26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="G26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="H26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="I26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="J26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="K26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="L26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="M26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="N26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8424066739124</v>
+        <v>212.8424066739133</v>
       </c>
       <c r="P26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="R26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="S26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="27">
@@ -29357,16 +29357,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7381070793004</v>
+        <v>90.00302923596817</v>
       </c>
       <c r="H27" t="n">
         <v>125.6727734256474</v>
@@ -29402,25 +29402,25 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S27" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>162.8243736897226</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="28">
@@ -29445,22 +29445,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6953277291724</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7759671126257</v>
+        <v>167.5094015286053</v>
       </c>
       <c r="I28" t="n">
         <v>164.6891559687103</v>
       </c>
       <c r="J28" t="n">
-        <v>201.8701939899561</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K28" t="n">
         <v>66.3971147738707</v>
       </c>
       <c r="L28" t="n">
-        <v>31.3419664684894</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="M28" t="n">
         <v>24.36299235552879</v>
@@ -29472,34 +29472,34 @@
         <v>36.70894732328664</v>
       </c>
       <c r="P28" t="n">
-        <v>212.842406673913</v>
+        <v>57.81978506455187</v>
       </c>
       <c r="Q28" t="n">
         <v>126.760857412832</v>
       </c>
       <c r="R28" t="n">
-        <v>203.1850353264581</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="S28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="29">
@@ -29545,7 +29545,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8424066739134</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O29" t="n">
         <v>212.842406673913</v>
@@ -29597,10 +29597,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381070793004</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.040069060206896</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U30" t="n">
-        <v>212.842406673913</v>
+        <v>121.460662898959</v>
       </c>
       <c r="V30" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="W30" t="n">
-        <v>122.6362183828659</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X30" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>172.789334817481</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.6953277291724</v>
@@ -29688,7 +29688,7 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I31" t="n">
-        <v>212.842406673913</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J31" t="n">
         <v>119.854490685719</v>
@@ -29709,13 +29709,13 @@
         <v>36.70894732328664</v>
       </c>
       <c r="P31" t="n">
+        <v>199.119189369614</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.842406673913</v>
       </c>
-      <c r="Q31" t="n">
-        <v>126.760857412832</v>
-      </c>
       <c r="R31" t="n">
-        <v>203.1850353264581</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S31" t="n">
         <v>212.842406673913</v>
@@ -29794,7 +29794,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="R32" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739128</v>
       </c>
       <c r="S32" t="n">
         <v>212.842406673913</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>31.69865902537731</v>
+        <v>42.46631615207767</v>
       </c>
       <c r="G33" t="n">
         <v>148.7381070793004</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.842406673913</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.842406673913</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.842406673913</v>
+        <v>168.6953277291724</v>
       </c>
       <c r="H34" t="n">
-        <v>210.183819849138</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I34" t="n">
         <v>164.6891559687103</v>
       </c>
       <c r="J34" t="n">
-        <v>119.854490685719</v>
+        <v>212.842406673913</v>
       </c>
       <c r="K34" t="n">
         <v>66.3971147738707</v>
@@ -29940,7 +29940,7 @@
         <v>24.36299235552879</v>
       </c>
       <c r="N34" t="n">
-        <v>15.6865875183878</v>
+        <v>114.8541390873922</v>
       </c>
       <c r="O34" t="n">
         <v>36.70894732328664</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="C35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="D35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="E35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="F35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="G35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="H35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="I35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="J35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K35" t="n">
-        <v>5.182481516300349</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="L35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="M35" t="n">
-        <v>236.018216394118</v>
+        <v>167.6146856918978</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>140.0487666285616</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S35" t="n">
-        <v>236.018216394118</v>
+        <v>227.240272421867</v>
       </c>
       <c r="T35" t="n">
-        <v>236.018216394118</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
     </row>
     <row r="36">
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6727734256474</v>
+        <v>16.68024017522671</v>
       </c>
       <c r="I36" t="n">
-        <v>79.95625308085206</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J36" t="n">
         <v>51.86130901229092</v>
@@ -30116,22 +30116,22 @@
         <v>191.47010505155</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U36" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V36" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W36" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30165,16 +30165,16 @@
         <v>164.6891559687103</v>
       </c>
       <c r="J37" t="n">
-        <v>119.854490685719</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K37" t="n">
-        <v>66.3971147738707</v>
+        <v>68.61042502109508</v>
       </c>
       <c r="L37" t="n">
         <v>31.3419664684894</v>
       </c>
       <c r="M37" t="n">
-        <v>142.7400283111527</v>
+        <v>24.36299235552879</v>
       </c>
       <c r="N37" t="n">
         <v>15.6865875183878</v>
@@ -30198,13 +30198,13 @@
         <v>223.7382840589537</v>
       </c>
       <c r="U37" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V37" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W37" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="C38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="D38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="E38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="F38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="G38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="H38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="I38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="J38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K38" t="n">
         <v>5.182481516300349</v>
       </c>
       <c r="L38" t="n">
-        <v>236.018216394118</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>140.0487666285589</v>
       </c>
       <c r="O38" t="n">
-        <v>162.4322041755986</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="P38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S38" t="n">
-        <v>227.240272421867</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>109.4852015341227</v>
+        <v>82.45624529800057</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H39" t="n">
         <v>125.6727734256474</v>
@@ -30350,22 +30350,22 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S39" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U39" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V39" t="n">
-        <v>236.018216394118</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,10 +30405,10 @@
         <v>119.854490685719</v>
       </c>
       <c r="K40" t="n">
-        <v>66.3971147738707</v>
+        <v>184.7741507294942</v>
       </c>
       <c r="L40" t="n">
-        <v>149.7190024241133</v>
+        <v>31.3419664684894</v>
       </c>
       <c r="M40" t="n">
         <v>24.36299235552879</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382840589537</v>
       </c>
       <c r="U40" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V40" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W40" t="n">
-        <v>236.018216394118</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,13 +30481,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0182163941181</v>
+        <v>75.75094664689104</v>
       </c>
       <c r="K41" t="n">
-        <v>131.8855397166698</v>
+        <v>5.182481516300349</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>64.29781998166783</v>
       </c>
       <c r="M41" t="n">
         <v>236.0182163941181</v>
@@ -30499,7 +30499,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="P41" t="n">
-        <v>13.34570842819045</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="Q41" t="n">
         <v>236.0182163941181</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>50.70856544695258</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.6727734256474</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.040069060206896</v>
       </c>
       <c r="R42" t="n">
         <v>134.3163923318781</v>
@@ -30590,22 +30590,22 @@
         <v>191.47010505155</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="W42" t="n">
-        <v>236.0182163941181</v>
+        <v>114.201968746569</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>236.0182163941181</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>182.7749378587489</v>
+        <v>188.7241167424407</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30636,7 +30636,7 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I43" t="n">
-        <v>164.6891559687103</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="J43" t="n">
         <v>119.854490685719</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>236.0182163941181</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,37 +30718,37 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J44" t="n">
-        <v>236.0182163941181</v>
+        <v>140.0487666285589</v>
       </c>
       <c r="K44" t="n">
-        <v>236.0182163941181</v>
+        <v>5.182481516300349</v>
       </c>
       <c r="L44" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="P44" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.5141717080167</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1187303779996</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S44" t="n">
-        <v>227.240272421867</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U44" t="n">
         <v>236.0182163941181</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30791,7 +30791,7 @@
         <v>148.7381070793004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I45" t="n">
         <v>107.1397061627909</v>
@@ -30824,25 +30824,25 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T45" t="n">
-        <v>146.4931168304741</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U45" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="V45" t="n">
-        <v>236.0182163941181</v>
+        <v>191.2163276980158</v>
       </c>
       <c r="W45" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30891,22 +30891,22 @@
         <v>15.6865875183878</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70894732328664</v>
+        <v>155.0859832789102</v>
       </c>
       <c r="P46" t="n">
         <v>57.81978506455187</v>
       </c>
       <c r="Q46" t="n">
-        <v>199.2071546347304</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R46" t="n">
         <v>203.1850353264581</v>
       </c>
       <c r="S46" t="n">
-        <v>236.0182163941181</v>
+        <v>235.3431145613827</v>
       </c>
       <c r="T46" t="n">
-        <v>236.0182163941181</v>
+        <v>223.7382840589537</v>
       </c>
       <c r="U46" t="n">
         <v>236.0182163941181</v>
@@ -30918,10 +30918,10 @@
         <v>236.0182163941181</v>
       </c>
       <c r="X46" t="n">
-        <v>236.0182163941181</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.0182163941181</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.86583966179796</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>49.10912031175923</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="N11" t="n">
         <v>78.25559268998296</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>73.86583966179889</v>
       </c>
       <c r="R11" t="n">
-        <v>10.20377208234688</v>
+        <v>10.20377208234693</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.3959808139198</v>
       </c>
       <c r="L12" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>41.02871107592193</v>
       </c>
       <c r="N12" t="n">
-        <v>41.02871107592159</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="O12" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="P12" t="n">
-        <v>83.81099470625577</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.70558179537841</v>
+        <v>26.70558179537846</v>
       </c>
       <c r="C13" t="n">
-        <v>37.86532148837415</v>
+        <v>37.86532148837421</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.39562024189985</v>
+        <v>65.39562024189991</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>81.35626315568106</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="M13" t="n">
-        <v>83.81099470625577</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>81.35626315568095</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2586170378897276</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>49.10912031175923</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>73.865839661799</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.20377208234685</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.3959808139198</v>
       </c>
       <c r="L15" t="n">
         <v>83.81099470625608</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="N15" t="n">
         <v>83.81099470625608</v>
       </c>
       <c r="O15" t="n">
-        <v>83.81099470625608</v>
+        <v>41.02871107592194</v>
       </c>
       <c r="P15" t="n">
-        <v>80.42469188984172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,31 +35778,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.70558179537841</v>
+        <v>26.70558179537838</v>
       </c>
       <c r="C16" t="n">
-        <v>37.86532148837415</v>
+        <v>37.86532148837412</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.13985220963576</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.64636124812148</v>
       </c>
       <c r="F16" t="n">
-        <v>65.39562024189985</v>
+        <v>65.39562024189982</v>
       </c>
       <c r="G16" t="n">
-        <v>35.62717473117409</v>
+        <v>35.62717473117406</v>
       </c>
       <c r="H16" t="n">
-        <v>38.54653534772078</v>
+        <v>7.753869673006526</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.29443560163974</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.56164504751455</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.137467133888373</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>69.231679474629</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="V17" t="n">
-        <v>14.83793226951684</v>
+        <v>0.2586170378897419</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>83.81099470625608</v>
+        <v>80.42469188984172</v>
       </c>
       <c r="M18" t="n">
         <v>83.81099470625608</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>80.42469188984172</v>
+        <v>83.81099470625608</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.23167947462896</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>69.231679474629</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>14.83793226951684</v>
@@ -36209,13 +36209,13 @@
         <v>83.81099470625608</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>41.02871107592194</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>83.81099470625608</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2586170378897867</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.2586170378897706</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>83.81099470625608</v>
       </c>
       <c r="N24" t="n">
+        <v>83.81099470625608</v>
+      </c>
+      <c r="O24" t="n">
         <v>41.02871107592194</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>296.653401380169</v>
       </c>
       <c r="N26" t="n">
-        <v>291.097999363896</v>
+        <v>291.0979993638959</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4547632303782</v>
+        <v>249.4547632303792</v>
       </c>
       <c r="P26" t="n">
         <v>199.4966982457225</v>
@@ -36616,7 +36616,7 @@
         <v>124.4420411176421</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72367629591334</v>
+        <v>18.72367629591331</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36741,22 +36741,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.14707894474052</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.733434415979534</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.01570330423711</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.5004402054235</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0226216093611</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.657371347454808</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0914600270219</v>
+        <v>137.091460027022</v>
       </c>
       <c r="K29" t="n">
         <v>207.6599251576126</v>
@@ -36841,7 +36841,7 @@
         <v>296.653401380169</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0979993638964</v>
+        <v>291.097999363896</v>
       </c>
       <c r="O29" t="n">
         <v>249.4547632303788</v>
@@ -36850,10 +36850,10 @@
         <v>199.4966982457225</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4420411176421</v>
+        <v>124.4420411176422</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72367629591334</v>
+        <v>18.72367629591337</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.86245259903438</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.15325070520271</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0226216093611</v>
+        <v>141.2994043050621</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08154926108104</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.657371347454864</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K32" t="n">
         <v>207.6599251576126</v>
@@ -37087,10 +37087,10 @@
         <v>199.4966982457225</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72367629591338</v>
+        <v>18.72367629591322</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,31 +37200,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.22548600894487</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.65975642320228</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.166265461688</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.14707894474058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>44.40785273651227</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>92.98791598819399</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>99.16755156900444</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.657371347454864</v>
+        <v>9.657371347454836</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.267269747227</v>
+        <v>160.2672697472271</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L35" t="n">
-        <v>285.1273367058773</v>
+        <v>285.1273367058774</v>
       </c>
       <c r="M35" t="n">
-        <v>319.8292111003741</v>
+        <v>251.4256803981539</v>
       </c>
       <c r="N35" t="n">
         <v>78.25559268998296</v>
       </c>
       <c r="O35" t="n">
-        <v>176.6611231850274</v>
+        <v>36.61235655646584</v>
       </c>
       <c r="P35" t="n">
-        <v>222.6725079659276</v>
+        <v>222.6725079659277</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.6178508378472</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R35" t="n">
-        <v>41.89948601611839</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S35" t="n">
-        <v>8.77794397225102</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.60549357478737</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>116.1637257083992</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.21331024722439</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>118.3770359556239</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.267269747227</v>
+        <v>160.2672697472271</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>285.1273367058773</v>
+        <v>49.10912031175923</v>
       </c>
       <c r="M38" t="n">
-        <v>319.8292111003741</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N38" t="n">
-        <v>78.25559268998296</v>
+        <v>218.3043593185419</v>
       </c>
       <c r="O38" t="n">
-        <v>199.0445607320645</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6725079659276</v>
+        <v>222.6725079659277</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6178508378472</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R38" t="n">
-        <v>41.89948601611839</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.777943972251133</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.60549357478748</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>118.3770359556235</v>
       </c>
       <c r="L40" t="n">
-        <v>118.3770359556239</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.2672697472271</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>126.7030582003695</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>49.10912031175923</v>
+        <v>113.4069402934271</v>
       </c>
       <c r="M41" t="n">
         <v>319.8292111003742</v>
@@ -37792,22 +37792,22 @@
         <v>314.2738090841011</v>
       </c>
       <c r="O41" t="n">
-        <v>272.6305729505839</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>222.6725079659277</v>
       </c>
       <c r="Q41" t="n">
         <v>147.6178508378473</v>
       </c>
       <c r="R41" t="n">
-        <v>41.89948601611847</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S41" t="n">
-        <v>8.777943972251105</v>
+        <v>8.777943972251133</v>
       </c>
       <c r="T41" t="n">
-        <v>13.60549357478745</v>
+        <v>13.60549357478748</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.40129572915001</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.09879664652392</v>
+        <v>47.04797553021567</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.32906042540787</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.87694357994968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.2672697472271</v>
+        <v>64.29781998166783</v>
       </c>
       <c r="K44" t="n">
-        <v>230.8357348778177</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>285.1273367058773</v>
+        <v>49.10912031175923</v>
       </c>
       <c r="M44" t="n">
         <v>319.8292111003742</v>
       </c>
       <c r="N44" t="n">
-        <v>78.25559268998296</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O44" t="n">
-        <v>36.61235655646584</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P44" t="n">
         <v>222.6725079659277</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.1138061517459</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.777943972251133</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.60549357478748</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38187,22 +38187,22 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>118.3770359556235</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.44629722189849</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6751018327354288</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.27993233516442</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14.09876098587557</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.87694357994968</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
